--- a/participant_info.xlsx
+++ b/participant_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arno/temp/BIDS_export_p300/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3A79B-D281-124A-9241-2D03934B0686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87EDDEA-0CCE-A94F-838B-1D0C1AFAAC3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4380" yWindow="3560" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,6 @@
     <t>Ethnicity</t>
   </si>
   <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
     <t>Air_conditioning</t>
   </si>
   <si>
@@ -41,6 +35,12 @@
   </si>
   <si>
     <t>Indian</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -897,29 +897,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
